--- a/public/download/Customers.xlsx
+++ b/public/download/Customers.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\qualisoBot_L8\public\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\FoodApp_v1\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B3E8E7-495B-4A9F-A6D9-0102E38BCD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF5080-EB90-4CE0-BF66-9BB7640EB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>phone</t>
   </si>
@@ -41,9 +33,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>langue</t>
-  </si>
-  <si>
     <t>212655284370</t>
   </si>
   <si>
@@ -51,9 +40,6 @@
   </si>
   <si>
     <t>full name</t>
-  </si>
-  <si>
-    <t>fr</t>
   </si>
   <si>
     <t>Amine Ram</t>
@@ -386,23 +372,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -410,22 +395,16 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
